--- a/template/invoiceTem6.xlsx
+++ b/template/invoiceTem6.xlsx
@@ -1,41 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F6BA31-4DA5-4EDA-BFA3-1C62D3EA20A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB5C3A-1D49-754D-B79D-441F94CE0BA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27810" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="27820" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name=" INV" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">' INV'!$A$1:$K$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet!$A$1:$K$43</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
-  <si>
-    <t>HIGH ABLE INVESTMENT LIMITED</t>
-  </si>
-  <si>
-    <t>Flat D, 3/F., Ka Wing Fty. Bldg., 19-21 Ng Fong Street, San Po Kong, Kowloon</t>
-  </si>
-  <si>
-    <t>Tel: (852) 2329 0335        Fax:  (852) 2726 3821</t>
-  </si>
-  <si>
-    <t>INVOICE NO.HAI-1592B</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -53,9 +41,6 @@
   </si>
   <si>
     <t>16-26 Wang Wo Tsai Street,Tsuen Wan, N.T.,Hong Kong</t>
-  </si>
-  <si>
-    <t>Attn:Conney Cheung</t>
   </si>
   <si>
     <t>QUANTITY</t>
@@ -102,11 +87,11 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ONLY**</t>
+    <t>INVOICE NO.</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>**SAY USD ONE THOUSAND AND TEN CENTS FFTY</t>
+    <t>Attn:</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -115,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yy"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -171,6 +156,7 @@
     <font>
       <sz val="12"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -380,7 +366,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -388,10 +374,50 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,46 +439,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -769,39 +755,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="6.875" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="9.5" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -820,18 +804,16 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -850,18 +832,16 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -913,12 +893,12 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="32" t="s">
-        <v>3</v>
+      <c r="F5" s="52" t="s">
+        <v>20</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -942,10 +922,10 @@
     <row r="6" spans="1:26" ht="12" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
@@ -975,7 +955,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
@@ -983,11 +963,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
-      <c r="J7" s="6">
-        <v>42933</v>
-      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1008,19 +986,19 @@
     <row r="8" spans="1:26" ht="12" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>9</v>
+      <c r="C8" s="53" t="s">
+        <v>5</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1043,7 +1021,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
@@ -1052,7 +1030,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1128,25 +1106,25 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1">
-      <c r="A12" s="54"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="26" t="s">
-        <v>12</v>
+      <c r="D12" s="46" t="s">
+        <v>7</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>14</v>
+      <c r="J12" s="46" t="s">
+        <v>9</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -1165,15 +1143,15 @@
     </row>
     <row r="13" spans="1:26" ht="12" customHeight="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="35"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="14"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -1193,16 +1171,16 @@
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1">
       <c r="A14" s="18"/>
-      <c r="B14" s="35"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="14"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="44"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -1221,15 +1199,15 @@
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="35"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="14"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="36"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="14"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1248,25 +1226,25 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1">
-      <c r="A16" s="45" t="s">
-        <v>4</v>
+      <c r="A16" s="36" t="s">
+        <v>0</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>4</v>
+      <c r="B16" s="28" t="s">
+        <v>0</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="14"/>
       <c r="I16" s="19" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
-      <c r="J16" s="38" t="s">
-        <v>4</v>
+      <c r="J16" s="29" t="s">
+        <v>0</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="2"/>
@@ -1286,16 +1264,16 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="12" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="38"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="14"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1314,19 +1292,19 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="47"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -1344,16 +1322,16 @@
       <c r="Z18" s="13"/>
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="40"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="41"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="14"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
@@ -1372,20 +1350,18 @@
       <c r="Z19" s="13"/>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="36">
-        <v>1</v>
+      <c r="A20" s="36"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="14" t="s">
+        <v>19</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="26"/>
       <c r="K20" s="14"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1404,14 +1380,14 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="42"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="21"/>
       <c r="J21" s="24"/>
       <c r="K21" s="14"/>
@@ -1432,13 +1408,13 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="14"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -1460,15 +1436,13 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="14"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -1490,18 +1464,16 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="14"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="35"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="14"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1520,16 +1492,16 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="12" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="38"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="14"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1548,18 +1520,18 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="35" t="s">
-        <v>16</v>
+      <c r="D26" s="26" t="s">
+        <v>11</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="14"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="38"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="14"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1578,16 +1550,16 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="14"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="38"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="14"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1606,16 +1578,16 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="14"/>
       <c r="I28" s="19"/>
-      <c r="J28" s="38"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="14"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1634,18 +1606,18 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="35" t="s">
-        <v>17</v>
+      <c r="D29" s="26" t="s">
+        <v>12</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="14"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="38"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="14"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1664,18 +1636,18 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="12" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="35" t="s">
-        <v>18</v>
+      <c r="D30" s="26" t="s">
+        <v>13</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="14"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="38"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="14"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1694,18 +1666,18 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="12" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="35" t="s">
-        <v>19</v>
+      <c r="D31" s="26" t="s">
+        <v>14</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="14"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="38"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="14"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1724,18 +1696,18 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="43" t="s">
-        <v>23</v>
+      <c r="D32" s="34" t="s">
+        <v>18</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="14"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="38"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="14"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1754,18 +1726,18 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="12" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="35" t="s">
-        <v>20</v>
+      <c r="D33" s="26" t="s">
+        <v>15</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="14"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="38"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="14"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1784,18 +1756,18 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="12" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="43" t="s">
-        <v>21</v>
+      <c r="D34" s="34" t="s">
+        <v>16</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="14"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="38"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="14"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -1814,16 +1786,16 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="12" customHeight="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="17"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="38"/>
+      <c r="J35" s="29"/>
       <c r="K35" s="14"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -1842,16 +1814,16 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="12" customHeight="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="37"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="17"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="38"/>
+      <c r="J36" s="29"/>
       <c r="K36" s="14"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -1870,16 +1842,16 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="12" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="17"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="38"/>
+      <c r="J37" s="29"/>
       <c r="K37" s="14"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -1898,16 +1870,16 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="12" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="17"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="38"/>
+      <c r="J38" s="29"/>
       <c r="K38" s="14"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -1926,16 +1898,16 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="12" customHeight="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="17"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="38"/>
+      <c r="J39" s="29"/>
       <c r="K39" s="14"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -1954,16 +1926,16 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="12" customHeight="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="37"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="17"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="38"/>
+      <c r="J40" s="29"/>
       <c r="K40" s="14"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -1982,16 +1954,16 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="12" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="37"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="17"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="17"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="38"/>
+      <c r="J41" s="29"/>
       <c r="K41" s="14"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -2010,16 +1982,16 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="12" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="17"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="38"/>
+      <c r="J42" s="29"/>
       <c r="K42" s="14"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -2038,19 +2010,19 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="12" customHeight="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49" t="s">
-        <v>22</v>
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40" t="s">
+        <v>17</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="53"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="44"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>

--- a/template/invoiceTem6.xlsx
+++ b/template/invoiceTem6.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB5C3A-1D49-754D-B79D-441F94CE0BA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A4AE3D-6B6B-4FE1-B6A1-88592692CBA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="27820" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2160" windowWidth="25425" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet!$A$1:$K$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet!$A$1:$K$46</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -31,16 +31,7 @@
     <t>M/S.</t>
   </si>
   <si>
-    <t>Golden Bough &amp; Co</t>
-  </si>
-  <si>
-    <t>17/F,Sunwise Industrial Building,</t>
-  </si>
-  <si>
     <t>DATE:</t>
-  </si>
-  <si>
-    <t>16-26 Wang Wo Tsai Street,Tsuen Wan, N.T.,Hong Kong</t>
   </si>
   <si>
     <t>QUANTITY</t>
@@ -100,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yy"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yy"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -192,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -325,11 +316,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -366,7 +381,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -374,7 +389,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,26 +398,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,11 +422,26 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,6 +462,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,39 +789,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z987"/>
+  <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A21" sqref="A21:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="9.5" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
     <col min="12" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -804,16 +840,16 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -832,16 +868,16 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -893,10 +929,10 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="52" t="s">
-        <v>20</v>
+      <c r="F5" s="57" t="s">
+        <v>17</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="2" t="s">
         <v>0</v>
       </c>
@@ -924,9 +960,7 @@
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
@@ -954,16 +988,14 @@
     <row r="7" spans="1:26" ht="12" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="2"/>
@@ -988,12 +1020,10 @@
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1021,7 +1051,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
@@ -1106,25 +1136,25 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="54"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -1142,17 +1172,17 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" ht="12" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="14"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -1170,9 +1200,9 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="16"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -1197,10 +1227,10 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="14"/>
+    <row r="15" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1">
+      <c r="A15" s="60"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="16"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -1208,7 +1238,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
       <c r="J15" s="27"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="49"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -1225,86 +1255,74 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1">
-      <c r="A16" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="18"/>
+    <row r="16" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="26"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+    </row>
+    <row r="17" spans="1:26" s="44" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="38"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="49"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -1322,47 +1340,55 @@
       <c r="Z18" s="13"/>
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="18"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="49"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="14"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="49"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1379,74 +1405,78 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="28"/>
+    <row r="21" spans="1:26" ht="12" customHeight="1">
+      <c r="A21" s="60"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="26"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="14"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+    </row>
+    <row r="23" spans="1:26" ht="12" customHeight="1" thickBot="1">
+      <c r="A23" s="61"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1463,17 +1493,17 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" thickTop="1">
       <c r="A24" s="36"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="14"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1499,9 +1529,9 @@
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="29"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="14"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1523,15 +1553,13 @@
       <c r="A26" s="36"/>
       <c r="B26" s="28"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="D26" s="26"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="29"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="14"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1553,13 +1581,13 @@
       <c r="A27" s="36"/>
       <c r="B27" s="28"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="28"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="29"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="26"/>
       <c r="K27" s="14"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1581,11 +1609,11 @@
       <c r="A28" s="36"/>
       <c r="B28" s="28"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="28"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="19"/>
       <c r="J28" s="29"/>
       <c r="K28" s="14"/>
@@ -1610,7 +1638,7 @@
       <c r="B29" s="28"/>
       <c r="C29" s="17"/>
       <c r="D29" s="26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
@@ -1639,12 +1667,10 @@
       <c r="A30" s="36"/>
       <c r="B30" s="28"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="26" t="s">
-        <v>13</v>
-      </c>
+      <c r="D30" s="28"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="14"/>
       <c r="I30" s="19"/>
       <c r="J30" s="29"/>
@@ -1669,12 +1695,10 @@
       <c r="A31" s="36"/>
       <c r="B31" s="28"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="D31" s="28"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="14"/>
       <c r="I31" s="19"/>
       <c r="J31" s="29"/>
@@ -1699,12 +1723,12 @@
       <c r="A32" s="36"/>
       <c r="B32" s="28"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="34" t="s">
-        <v>18</v>
+      <c r="D32" s="26" t="s">
+        <v>9</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="14"/>
       <c r="I32" s="19"/>
       <c r="J32" s="29"/>
@@ -1730,7 +1754,7 @@
       <c r="B33" s="28"/>
       <c r="C33" s="17"/>
       <c r="D33" s="26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="28"/>
@@ -1759,8 +1783,8 @@
       <c r="A34" s="36"/>
       <c r="B34" s="28"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="34" t="s">
-        <v>16</v>
+      <c r="D34" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="28"/>
@@ -1789,11 +1813,13 @@
       <c r="A35" s="36"/>
       <c r="B35" s="28"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="28"/>
+      <c r="D35" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
-      <c r="H35" s="17"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="19"/>
       <c r="J35" s="29"/>
       <c r="K35" s="14"/>
@@ -1817,11 +1843,13 @@
       <c r="A36" s="36"/>
       <c r="B36" s="28"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="28"/>
+      <c r="D36" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="26"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="17"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="19"/>
       <c r="J36" s="29"/>
       <c r="K36" s="14"/>
@@ -1845,11 +1873,13 @@
       <c r="A37" s="36"/>
       <c r="B37" s="28"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="D37" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="26"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
-      <c r="H37" s="17"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="19"/>
       <c r="J37" s="29"/>
       <c r="K37" s="14"/>
@@ -1901,7 +1931,7 @@
       <c r="A39" s="36"/>
       <c r="B39" s="28"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="28"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -2010,19 +2040,17 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="12" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="40"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="44"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="14"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -2040,17 +2068,17 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="12" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="2"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="14"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -2068,17 +2096,17 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="12" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="14"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -2096,17 +2124,19 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="12" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="42"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -2124,7 +2154,7 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="12" customHeight="1">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2132,8 +2162,8 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="20"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -28471,6 +28501,90 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
+    <row r="988" spans="1:26" ht="12" customHeight="1">
+      <c r="A988" s="2"/>
+      <c r="B988" s="2"/>
+      <c r="C988" s="2"/>
+      <c r="D988" s="2"/>
+      <c r="E988" s="2"/>
+      <c r="F988" s="2"/>
+      <c r="G988" s="2"/>
+      <c r="H988" s="2"/>
+      <c r="I988" s="2"/>
+      <c r="J988" s="2"/>
+      <c r="K988" s="2"/>
+      <c r="L988" s="2"/>
+      <c r="M988" s="2"/>
+      <c r="N988" s="2"/>
+      <c r="O988" s="2"/>
+      <c r="P988" s="2"/>
+      <c r="Q988" s="2"/>
+      <c r="R988" s="2"/>
+      <c r="S988" s="2"/>
+      <c r="T988" s="2"/>
+      <c r="U988" s="2"/>
+      <c r="V988" s="2"/>
+      <c r="W988" s="2"/>
+      <c r="X988" s="2"/>
+      <c r="Y988" s="2"/>
+      <c r="Z988" s="2"/>
+    </row>
+    <row r="989" spans="1:26" ht="12" customHeight="1">
+      <c r="A989" s="2"/>
+      <c r="B989" s="2"/>
+      <c r="C989" s="2"/>
+      <c r="D989" s="2"/>
+      <c r="E989" s="2"/>
+      <c r="F989" s="2"/>
+      <c r="G989" s="2"/>
+      <c r="H989" s="2"/>
+      <c r="I989" s="2"/>
+      <c r="J989" s="2"/>
+      <c r="K989" s="2"/>
+      <c r="L989" s="2"/>
+      <c r="M989" s="2"/>
+      <c r="N989" s="2"/>
+      <c r="O989" s="2"/>
+      <c r="P989" s="2"/>
+      <c r="Q989" s="2"/>
+      <c r="R989" s="2"/>
+      <c r="S989" s="2"/>
+      <c r="T989" s="2"/>
+      <c r="U989" s="2"/>
+      <c r="V989" s="2"/>
+      <c r="W989" s="2"/>
+      <c r="X989" s="2"/>
+      <c r="Y989" s="2"/>
+      <c r="Z989" s="2"/>
+    </row>
+    <row r="990" spans="1:26" ht="12" customHeight="1">
+      <c r="A990" s="2"/>
+      <c r="B990" s="2"/>
+      <c r="C990" s="2"/>
+      <c r="D990" s="2"/>
+      <c r="E990" s="2"/>
+      <c r="F990" s="2"/>
+      <c r="G990" s="2"/>
+      <c r="H990" s="2"/>
+      <c r="I990" s="2"/>
+      <c r="J990" s="2"/>
+      <c r="K990" s="2"/>
+      <c r="L990" s="2"/>
+      <c r="M990" s="2"/>
+      <c r="N990" s="2"/>
+      <c r="O990" s="2"/>
+      <c r="P990" s="2"/>
+      <c r="Q990" s="2"/>
+      <c r="R990" s="2"/>
+      <c r="S990" s="2"/>
+      <c r="T990" s="2"/>
+      <c r="U990" s="2"/>
+      <c r="V990" s="2"/>
+      <c r="W990" s="2"/>
+      <c r="X990" s="2"/>
+      <c r="Y990" s="2"/>
+      <c r="Z990" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D12:H12"/>
